--- a/Documentation/Project timeline1.xlsx
+++ b/Documentation/Project timeline1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF27E0-3B66-4939-921D-A9824B9C9D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02226B0-2336-45FF-B555-9B349C0DB635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Activity</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Kim Alexander Mendoza</t>
+  </si>
+  <si>
+    <t>AdminSide</t>
+  </si>
+  <si>
+    <t>Create Table report</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1176,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Activities" displayName="Activities" ref="B6:H18" totalsRowShown="0">
   <autoFilter ref="B6:H18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -1434,8 +1439,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1665,22 +1670,43 @@
         <f>ROW(B15)-calcs!$D$5</f>
         <v>3</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15"/>
+      <c r="C15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="13">
+        <v>45101</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <f>ROW(B16)-calcs!$D$5</f>
         <v>4</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16"/>
+      <c r="C16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13">
+        <v>45101</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
       <c r="G16"/>
-      <c r="H16"/>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17">
@@ -1755,7 +1781,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -6173,6 +6199,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6472,15 +6507,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6502,6 +6528,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A34675FB-CDF8-4243-9888-A100076C2DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22C74C5-065B-4723-9C23-003D7A495ABE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6518,14 +6552,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A34675FB-CDF8-4243-9888-A100076C2DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentation/Project timeline1.xlsx
+++ b/Documentation/Project timeline1.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02226B0-2336-45FF-B555-9B349C0DB635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49AEF1D-6828-4003-B10C-F05E96EAE03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project timeline" sheetId="1" r:id="rId1"/>
-    <sheet name="calcs" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Milestone" sheetId="3" r:id="rId2"/>
+    <sheet name="calcs" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="DayRails">StartDateWindow+ROW('Project timeline'!$1:$9)-1</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Activity</t>
   </si>
@@ -158,6 +159,18 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Response Table</t>
+  </si>
+  <si>
+    <t>Admin UI</t>
   </si>
 </sst>
 </file>
@@ -417,7 +430,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -472,6 +485,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,6 +496,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1439,8 +1458,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="35.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1459,29 +1478,29 @@
     <row r="1" spans="1:8" ht="73.95" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="8"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:8" s="5" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="9"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="319.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="10"/>
@@ -1754,6 +1773,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F054BD7-AF31-4BBD-880C-708D2C841B63}">
+  <dimension ref="A2:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" activeCellId="1" sqref="A3:E6 H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AI72"/>
@@ -1781,7 +1845,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -6199,15 +6263,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -6507,7 +6562,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -6527,15 +6582,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A34675FB-CDF8-4243-9888-A100076C2DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22C74C5-065B-4723-9C23-003D7A495ABE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6556,7 +6612,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{138B5DF5-9050-452B-824D-430EE0C675B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6568,6 +6624,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A34675FB-CDF8-4243-9888-A100076C2DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
